--- a/_project_settings/teachers_students_data.xlsx
+++ b/_project_settings/teachers_students_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madco\OneDrive\Desktop\_project_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBB9A4E-B346-443C-8748-BB59419BF2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D68593-3798-40E3-BFE5-3A96603FD2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93283103-F43E-447A-A613-CDEB5170BC45}"/>
   </bookViews>
@@ -16,10 +16,21 @@
     <sheet name="teachers" sheetId="1" r:id="rId1"/>
     <sheet name="students" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -34,33 +45,42 @@
     <t>tg ID</t>
   </si>
   <si>
+    <t>Предмет (сокр.)</t>
+  </si>
+  <si>
+    <t>is_admin</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Галахов Максим Константинович</t>
+  </si>
+  <si>
     <t>ТМП</t>
   </si>
   <si>
-    <t>Чернышев Станислав Андреевич</t>
-  </si>
-  <si>
-    <t>Предмет (сокр.)</t>
-  </si>
-  <si>
-    <t>Группа</t>
+    <t>УG-2801</t>
+  </si>
+  <si>
+    <t>Арзяев Иван Иванович</t>
+  </si>
+  <si>
+    <t>Байков Иван Дмитриевич</t>
+  </si>
+  <si>
+    <t>Дятчина Марья Дмитриевна</t>
+  </si>
+  <si>
+    <t>Епанчинцева Марья Владимировна</t>
+  </si>
+  <si>
+    <t>Касимова Марья Ринадовна</t>
   </si>
   <si>
     <t>Косарев Иван Максимович</t>
   </si>
   <si>
-    <t>is_admin</t>
-  </si>
-  <si>
-    <t>УG-2801</t>
-  </si>
-  <si>
-    <t>Арзяев Иван Иванович</t>
-  </si>
-  <si>
-    <t>Байков Иван Дмитриевич</t>
-  </si>
-  <si>
     <t>Мороз Иван Эдуардович</t>
   </si>
   <si>
@@ -77,22 +97,13 @@
   </si>
   <si>
     <t>Юльцманн Иван Карлович</t>
-  </si>
-  <si>
-    <t>Дятчина Марья Дмитриевна</t>
-  </si>
-  <si>
-    <t>Епанчинцева Марья Владимировна</t>
-  </si>
-  <si>
-    <t>Касимова Марья Ринадовна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,9 +171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +211,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,10 +470,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
@@ -471,7 +482,7 @@
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,30 +490,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="2">
-        <v>5834764205</v>
+        <v>1794292863</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -518,154 +529,154 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
